--- a/Table/Table_xls/s商店商城商会表/dMT3道具商城售卖配置表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/dMT3道具商城售卖配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <r>
       <rPr>
@@ -199,6 +199,33 @@
     <t>15级神秘石</t>
   </si>
   <si>
+    <t>速度锦衣</t>
+  </si>
+  <si>
+    <t>气血上限锦衣</t>
+  </si>
+  <si>
+    <t>魔法值锦衣</t>
+  </si>
+  <si>
+    <t>物理伤害锦衣</t>
+  </si>
+  <si>
+    <t>法术伤害锦衣</t>
+  </si>
+  <si>
+    <t>物理防御锦衣</t>
+  </si>
+  <si>
+    <t>魔法防御锦衣</t>
+  </si>
+  <si>
+    <t>全属性锦衣</t>
+  </si>
+  <si>
+    <t>取消锦衣</t>
+  </si>
+  <si>
     <t>90级百炼精铁</t>
   </si>
   <si>
@@ -309,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -375,21 +402,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,7 +449,117 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -417,12 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -431,26 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -459,38 +588,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -501,20 +604,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -526,30 +633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -560,63 +644,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="51">
     <fill>
@@ -639,12 +666,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -657,270 +708,246 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -929,29 +956,77 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,24 +1048,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,45 +1068,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,30 +1104,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -1116,11 +1115,54 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,10 +1177,10 @@
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,338 +1189,338 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1504,6 +1546,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1511,11 +1561,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1972,10 +2022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2046,7 +2096,7 @@
       <c r="I2" s="1">
         <v>2</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" ht="13.5" spans="1:11">
       <c r="A3" s="9">
@@ -2074,7 +2124,7 @@
       <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" ht="13.5" spans="1:11">
       <c r="A4" s="9">
@@ -2102,7 +2152,7 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" ht="13.5" spans="1:11">
       <c r="A5" s="9">
@@ -2130,7 +2180,7 @@
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="13.5" spans="1:11">
       <c r="A6" s="9">
@@ -2158,7 +2208,7 @@
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="13.5" spans="1:11">
       <c r="A7" s="9">
@@ -2186,7 +2236,7 @@
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="13.5" spans="1:11">
       <c r="A8" s="9">
@@ -2213,7 +2263,7 @@
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" ht="13.5" spans="1:11">
       <c r="A9" s="9">
@@ -2240,7 +2290,7 @@
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="13.5" spans="1:11">
       <c r="A10" s="9">
@@ -2267,7 +2317,7 @@
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" ht="13.5" spans="1:11">
       <c r="A11" s="9">
@@ -2294,7 +2344,7 @@
       <c r="I11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="13.5" spans="1:11">
       <c r="A12" s="9">
@@ -2321,7 +2371,7 @@
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" ht="13.5" spans="1:11">
       <c r="A13" s="9">
@@ -2348,7 +2398,7 @@
       <c r="I13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" ht="13.5" spans="1:11">
       <c r="A14" s="9">
@@ -2376,7 +2426,7 @@
       <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" ht="13.5" spans="1:11">
       <c r="A15" s="9">
@@ -2403,7 +2453,7 @@
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" ht="13.5" spans="1:11">
       <c r="A16" s="9">
@@ -2430,7 +2480,7 @@
       <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" ht="13.5" spans="1:11">
       <c r="A17" s="9">
@@ -2457,7 +2507,7 @@
       <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9">
@@ -2746,301 +2796,312 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:9">
-      <c r="A29" s="9">
+    <row r="29" s="1" customFormat="1" spans="1:9">
+      <c r="A29" s="15">
+        <v>3143</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:9">
+      <c r="A30" s="15">
+        <v>3144</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:9">
+      <c r="A31" s="15">
+        <v>3145</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:9">
+      <c r="A32" s="15">
+        <v>3146</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:9">
+      <c r="A33" s="15">
+        <v>3147</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>77</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:9">
+      <c r="A34" s="15">
+        <v>3148</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>78</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:9">
+      <c r="A35" s="15">
+        <v>3149</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>79</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:9">
+      <c r="A36" s="15">
+        <v>3150</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:9">
+      <c r="A37" s="15">
+        <v>3151</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:9">
+      <c r="A38" s="15">
+        <v>3152</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>82</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:9">
+      <c r="A39" s="15">
+        <v>3153</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>83</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" spans="1:9">
+      <c r="A40" s="9">
         <v>3114</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" spans="1:9">
-      <c r="A30" s="9">
-        <v>3115</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5" spans="1:9">
-      <c r="A31" s="9">
-        <v>3116</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" spans="1:9">
-      <c r="A32" s="9">
-        <v>3117</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" spans="1:9">
-      <c r="A33" s="9">
-        <v>3118</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" spans="1:9">
-      <c r="A34" s="9">
-        <v>3119</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" spans="1:9">
-      <c r="A35" s="9">
-        <v>3120</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="9">
-        <v>3121</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="9">
-        <v>3122</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="9">
-        <v>3123</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="9">
-        <v>3124</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="9">
-        <v>3125</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -3048,8 +3109,8 @@
       <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>47</v>
+      <c r="F40" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -3058,15 +3119,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" ht="13.5" spans="1:9">
       <c r="A41" s="9">
-        <v>3126</v>
+        <v>3115</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -3074,8 +3135,8 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>48</v>
+      <c r="F41" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -3084,15 +3145,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" ht="13.5" spans="1:9">
       <c r="A42" s="9">
-        <v>3127</v>
+        <v>3116</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -3100,8 +3161,8 @@
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>49</v>
+      <c r="F42" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -3110,15 +3171,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" ht="13.5" spans="1:9">
       <c r="A43" s="9">
-        <v>3128</v>
+        <v>3117</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -3126,8 +3187,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>50</v>
+      <c r="F43" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -3136,15 +3197,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" ht="13.5" spans="1:9">
       <c r="A44" s="9">
-        <v>3129</v>
+        <v>3118</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -3152,8 +3213,8 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>51</v>
+      <c r="F44" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -3162,15 +3223,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" ht="13.5" spans="1:9">
       <c r="A45" s="9">
-        <v>3130</v>
+        <v>3119</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -3178,8 +3239,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>52</v>
+      <c r="F45" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -3188,15 +3249,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" ht="13.5" spans="1:9">
       <c r="A46" s="9">
-        <v>3131</v>
+        <v>3120</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -3204,8 +3265,8 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>53</v>
+      <c r="F46" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -3216,13 +3277,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="9">
-        <v>3132</v>
+        <v>3121</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -3230,8 +3291,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>54</v>
+      <c r="F47" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -3242,13 +3303,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="9">
-        <v>3133</v>
+        <v>3122</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -3256,8 +3317,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>55</v>
+      <c r="F48" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -3268,13 +3329,13 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="9">
-        <v>3134</v>
+        <v>3123</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -3282,8 +3343,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>56</v>
+      <c r="F49" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -3294,13 +3355,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="9">
-        <v>3135</v>
+        <v>3124</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3308,8 +3369,8 @@
       <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>57</v>
+      <c r="F50" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -3320,13 +3381,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="9">
-        <v>3136</v>
+        <v>3125</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
       </c>
       <c r="C51" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -3334,8 +3395,8 @@
       <c r="E51" s="3">
         <v>0</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>58</v>
+      <c r="F51" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -3346,13 +3407,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="9">
-        <v>3137</v>
+        <v>3126</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -3360,8 +3421,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>59</v>
+      <c r="F52" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -3372,13 +3433,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="9">
-        <v>3138</v>
+        <v>3127</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -3386,8 +3447,8 @@
       <c r="E53" s="3">
         <v>0</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>60</v>
+      <c r="F53" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -3398,13 +3459,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="9">
-        <v>3139</v>
+        <v>3128</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -3412,8 +3473,8 @@
       <c r="E54" s="3">
         <v>0</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>61</v>
+      <c r="F54" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -3424,13 +3485,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="9">
-        <v>3140</v>
+        <v>3129</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -3438,8 +3499,8 @@
       <c r="E55" s="3">
         <v>0</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>62</v>
+      <c r="F55" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -3450,13 +3511,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="9">
-        <v>3141</v>
+        <v>3130</v>
       </c>
       <c r="B56" s="1">
         <v>3</v>
       </c>
       <c r="C56" s="3">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -3464,8 +3525,8 @@
       <c r="E56" s="3">
         <v>0</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>63</v>
+      <c r="F56" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -3476,10 +3537,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="9">
-        <v>4176</v>
+        <v>3131</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" s="3">
         <v>18</v>
@@ -3490,22 +3551,22 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="18" t="s">
-        <v>64</v>
+      <c r="F57" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9">
-        <v>4177</v>
+        <v>3132</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3">
         <v>19</v>
@@ -3516,22 +3577,22 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>65</v>
+      <c r="F58" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9">
-        <v>4178</v>
+        <v>3133</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3">
         <v>20</v>
@@ -3542,25 +3603,25 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>66</v>
+      <c r="F59" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
       </c>
       <c r="I59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="11" customHeight="1" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="9">
-        <v>4180</v>
+        <v>3134</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -3568,93 +3629,379 @@
       <c r="E60" s="3">
         <v>0</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>67</v>
+      <c r="F60" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
       </c>
       <c r="I60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="9">
+        <v>3135</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>22</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="9">
+        <v>3136</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>23</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="9">
+        <v>3137</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>24</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="9">
+        <v>3138</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="9">
+        <v>3139</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>26</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="9">
+        <v>3140</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>27</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="9">
+        <v>3141</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>28</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="9">
+        <v>4176</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>18</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="9">
+        <v>4177</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>19</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="9">
+        <v>4178</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>20</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="1" spans="1:9">
+      <c r="A71" s="9">
+        <v>4180</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>22</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="9">
         <v>4181</v>
       </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
         <v>23</v>
       </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="11" customHeight="1" spans="1:9">
-      <c r="A62" s="9">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="11" customHeight="1" spans="1:9">
+      <c r="A73" s="9">
         <v>4182</v>
       </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
         <v>24</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:9">
-      <c r="A63" s="9">
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:9">
+      <c r="A74" s="9">
         <v>4183</v>
       </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
         <v>25</v>
       </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="1">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Table/Table_xls/s商店商城商会表/dMT3道具商城售卖配置表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/dMT3道具商城售卖配置表.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -202,6 +202,15 @@
     <t>超级幻色丹</t>
   </si>
   <si>
+    <t>金兰花</t>
+  </si>
+  <si>
+    <t>神器转换符</t>
+  </si>
+  <si>
+    <t>宠物口粮</t>
+  </si>
+  <si>
     <t>速度锦衣</t>
   </si>
   <si>
@@ -345,12 +354,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -388,6 +397,11 @@
     <font>
       <sz val="10"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -412,20 +426,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,74 +455,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,9 +478,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -534,9 +492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +501,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,16 +560,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,50 +578,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -636,6 +603,20 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -643,6 +624,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -698,37 +712,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,19 +922,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,199 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,6 +1000,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -996,6 +1025,133 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,8 +1174,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,594 +1194,455 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1671,8 +1688,8 @@
     <cellStyle name="适中" xfId="38" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="42"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="42"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="43" builtinId="30"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
@@ -1694,15 +1711,15 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="62"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="63"/>
-    <cellStyle name="常规 3" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="64"/>
+    <cellStyle name="常规 3" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="66"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="68"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="69"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="70"/>
-    <cellStyle name="常规 5" xfId="71"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="72"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="71"/>
+    <cellStyle name="常规 5" xfId="72"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="73"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="74"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="75"/>
@@ -1720,8 +1737,8 @@
     <cellStyle name="常规 2 3" xfId="87"/>
     <cellStyle name="常规 2 4" xfId="88"/>
     <cellStyle name="常规 2 4 2" xfId="89"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="90"/>
-    <cellStyle name="常规 2 5" xfId="91"/>
+    <cellStyle name="常规 2 5" xfId="90"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="91"/>
     <cellStyle name="常规 2 5 2" xfId="92"/>
     <cellStyle name="常规 3 2" xfId="93"/>
     <cellStyle name="常规 3 2 2" xfId="94"/>
@@ -2086,14 +2103,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2602,13 +2619,13 @@
       <c r="E18" s="20">
         <v>11</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="19">
         <v>1</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="19">
         <v>2</v>
       </c>
@@ -2656,7 +2673,7 @@
       <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="10">
@@ -2683,7 +2700,7 @@
       <c r="E21" s="13">
         <v>0</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="10">
@@ -2710,7 +2727,7 @@
       <c r="E22" s="13">
         <v>0</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="10">
@@ -2737,7 +2754,7 @@
       <c r="E23" s="13">
         <v>0</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="10">
@@ -2764,7 +2781,7 @@
       <c r="E24" s="13">
         <v>0</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="10">
@@ -2791,7 +2808,7 @@
       <c r="E25" s="13">
         <v>0</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="10">
@@ -2818,7 +2835,7 @@
       <c r="E26" s="13">
         <v>0</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="10">
@@ -2830,7 +2847,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="11" customHeight="1" spans="1:9">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>3154</v>
       </c>
       <c r="B27" s="19">
@@ -2845,19 +2862,19 @@
       <c r="E27" s="20">
         <v>0</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:9">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>3155</v>
       </c>
       <c r="B28" s="19">
@@ -2872,19 +2889,19 @@
       <c r="E28" s="20">
         <v>0</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="11" customHeight="1" spans="1:9">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>3156</v>
       </c>
       <c r="B29" s="19">
@@ -2899,19 +2916,19 @@
       <c r="E29" s="20">
         <v>0</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:9">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>3157</v>
       </c>
       <c r="B30" s="19">
@@ -2926,107 +2943,107 @@
       <c r="E30" s="20">
         <v>0</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="21"/>
       <c r="I30" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:9">
-      <c r="A31" s="25">
-        <v>3143</v>
-      </c>
-      <c r="B31" s="10">
-        <v>2</v>
+    <row r="31" s="1" customFormat="1" ht="15.6" spans="1:9">
+      <c r="A31" s="26">
+        <v>3158</v>
+      </c>
+      <c r="B31" s="19">
+        <v>1</v>
       </c>
       <c r="C31" s="13">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
+        <v>30</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
         <v>0</v>
       </c>
       <c r="F31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:9">
-      <c r="A32" s="25">
-        <v>3144</v>
-      </c>
-      <c r="B32" s="10">
-        <v>2</v>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15.6" spans="1:9">
+      <c r="A32" s="26">
+        <v>3159</v>
+      </c>
+      <c r="B32" s="19">
+        <v>1</v>
       </c>
       <c r="C32" s="13">
-        <v>2</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:9">
-      <c r="A33" s="25">
-        <v>3145</v>
-      </c>
-      <c r="B33" s="10">
-        <v>2</v>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15.6" spans="1:9">
+      <c r="A33" s="26">
+        <v>3160</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1</v>
       </c>
       <c r="C33" s="13">
-        <v>3</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="10">
-        <v>2</v>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
-      <c r="A34" s="25">
-        <v>3146</v>
+      <c r="A34" s="24">
+        <v>3143</v>
       </c>
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
@@ -3034,7 +3051,7 @@
       <c r="E34" s="13">
         <v>0</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="10">
@@ -3046,14 +3063,14 @@
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:9">
-      <c r="A35" s="25">
-        <v>3147</v>
+      <c r="A35" s="24">
+        <v>3144</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
       </c>
       <c r="C35" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" s="13">
         <v>0</v>
@@ -3061,7 +3078,7 @@
       <c r="E35" s="13">
         <v>0</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="10">
@@ -3073,14 +3090,14 @@
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:9">
-      <c r="A36" s="25">
-        <v>3148</v>
+      <c r="A36" s="24">
+        <v>3145</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -3088,7 +3105,7 @@
       <c r="E36" s="13">
         <v>0</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="10">
@@ -3100,14 +3117,14 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:9">
-      <c r="A37" s="25">
-        <v>3149</v>
+      <c r="A37" s="24">
+        <v>3146</v>
       </c>
       <c r="B37" s="10">
         <v>2</v>
       </c>
       <c r="C37" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" s="13">
         <v>0</v>
@@ -3115,7 +3132,7 @@
       <c r="E37" s="13">
         <v>0</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="10">
@@ -3127,14 +3144,14 @@
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:9">
-      <c r="A38" s="25">
-        <v>3150</v>
+      <c r="A38" s="24">
+        <v>3147</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38" s="13">
         <v>0</v>
@@ -3142,7 +3159,7 @@
       <c r="E38" s="13">
         <v>0</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="10">
@@ -3154,14 +3171,14 @@
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:9">
-      <c r="A39" s="25">
-        <v>3151</v>
+      <c r="A39" s="24">
+        <v>3148</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" s="13">
         <v>0</v>
@@ -3169,8 +3186,8 @@
       <c r="E39" s="13">
         <v>0</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>45</v>
+      <c r="F39" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="G39" s="10">
         <v>1</v>
@@ -3181,14 +3198,14 @@
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:9">
-      <c r="A40" s="25">
-        <v>3152</v>
+      <c r="A40" s="24">
+        <v>3149</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" s="13">
         <v>0</v>
@@ -3196,8 +3213,8 @@
       <c r="E40" s="13">
         <v>0</v>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>45</v>
+      <c r="F40" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
@@ -3208,14 +3225,14 @@
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:9">
-      <c r="A41" s="25">
-        <v>3153</v>
+      <c r="A41" s="24">
+        <v>3150</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="13">
         <v>0</v>
@@ -3224,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41" s="10">
         <v>1</v>
@@ -3234,15 +3251,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" ht="14.4" spans="1:9">
-      <c r="A42" s="12">
-        <v>3114</v>
+    <row r="42" s="2" customFormat="1" spans="1:9">
+      <c r="A42" s="24">
+        <v>3151</v>
       </c>
       <c r="B42" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
@@ -3250,8 +3267,8 @@
       <c r="E42" s="13">
         <v>0</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>47</v>
+      <c r="F42" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="G42" s="10">
         <v>1</v>
@@ -3261,15 +3278,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" ht="14.4" spans="1:9">
-      <c r="A43" s="12">
-        <v>3115</v>
+    <row r="43" s="2" customFormat="1" spans="1:9">
+      <c r="A43" s="24">
+        <v>3152</v>
       </c>
       <c r="B43" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D43" s="13">
         <v>0</v>
@@ -3277,7 +3294,7 @@
       <c r="E43" s="13">
         <v>0</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="29" t="s">
         <v>48</v>
       </c>
       <c r="G43" s="10">
@@ -3288,15 +3305,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" ht="14.4" spans="1:9">
-      <c r="A44" s="12">
-        <v>3116</v>
+    <row r="44" s="2" customFormat="1" spans="1:9">
+      <c r="A44" s="24">
+        <v>3153</v>
       </c>
       <c r="B44" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
@@ -3317,13 +3334,13 @@
     </row>
     <row r="45" ht="14.4" spans="1:9">
       <c r="A45" s="12">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="B45" s="10">
         <v>3</v>
       </c>
       <c r="C45" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" s="13">
         <v>0</v>
@@ -3331,7 +3348,7 @@
       <c r="E45" s="13">
         <v>0</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="31" t="s">
         <v>50</v>
       </c>
       <c r="G45" s="10">
@@ -3344,13 +3361,13 @@
     </row>
     <row r="46" ht="14.4" spans="1:9">
       <c r="A46" s="12">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="B46" s="10">
         <v>3</v>
       </c>
       <c r="C46" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -3358,7 +3375,7 @@
       <c r="E46" s="13">
         <v>0</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="31" t="s">
         <v>51</v>
       </c>
       <c r="G46" s="10">
@@ -3371,13 +3388,13 @@
     </row>
     <row r="47" ht="14.4" spans="1:9">
       <c r="A47" s="12">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="B47" s="10">
         <v>3</v>
       </c>
       <c r="C47" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -3385,7 +3402,7 @@
       <c r="E47" s="13">
         <v>0</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="31" t="s">
         <v>52</v>
       </c>
       <c r="G47" s="10">
@@ -3398,13 +3415,13 @@
     </row>
     <row r="48" ht="14.4" spans="1:9">
       <c r="A48" s="12">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="B48" s="10">
         <v>3</v>
       </c>
       <c r="C48" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D48" s="13">
         <v>0</v>
@@ -3412,7 +3429,7 @@
       <c r="E48" s="13">
         <v>0</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="31" t="s">
         <v>53</v>
       </c>
       <c r="G48" s="10">
@@ -3423,15 +3440,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" ht="14.4" spans="1:9">
       <c r="A49" s="12">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="B49" s="10">
         <v>3</v>
       </c>
       <c r="C49" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D49" s="13">
         <v>0</v>
@@ -3450,15 +3467,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" ht="14.4" spans="1:9">
       <c r="A50" s="12">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="B50" s="10">
         <v>3</v>
       </c>
       <c r="C50" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50" s="13">
         <v>0</v>
@@ -3477,15 +3494,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" ht="14.4" spans="1:9">
       <c r="A51" s="12">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="B51" s="10">
         <v>3</v>
       </c>
       <c r="C51" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D51" s="13">
         <v>0</v>
@@ -3506,13 +3523,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="B52" s="10">
         <v>3</v>
       </c>
       <c r="C52" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" s="13">
         <v>0</v>
@@ -3520,7 +3537,7 @@
       <c r="E52" s="13">
         <v>0</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="32" t="s">
         <v>57</v>
       </c>
       <c r="G52" s="10">
@@ -3533,13 +3550,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="12">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="B53" s="10">
         <v>3</v>
       </c>
       <c r="C53" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="13">
         <v>0</v>
@@ -3547,7 +3564,7 @@
       <c r="E53" s="13">
         <v>0</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="32" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="10">
@@ -3560,13 +3577,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="12">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="B54" s="10">
         <v>3</v>
       </c>
       <c r="C54" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D54" s="13">
         <v>0</v>
@@ -3574,7 +3591,7 @@
       <c r="E54" s="13">
         <v>0</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="10">
@@ -3587,13 +3604,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="12">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="B55" s="10">
         <v>3</v>
       </c>
       <c r="C55" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" s="13">
         <v>0</v>
@@ -3601,7 +3618,7 @@
       <c r="E55" s="13">
         <v>0</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G55" s="10">
@@ -3614,13 +3631,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="12">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="B56" s="10">
         <v>3</v>
       </c>
       <c r="C56" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D56" s="13">
         <v>0</v>
@@ -3628,7 +3645,7 @@
       <c r="E56" s="13">
         <v>0</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G56" s="10">
@@ -3641,13 +3658,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="12">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="B57" s="10">
         <v>3</v>
       </c>
       <c r="C57" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D57" s="13">
         <v>0</v>
@@ -3655,7 +3672,7 @@
       <c r="E57" s="13">
         <v>0</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G57" s="10">
@@ -3668,13 +3685,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="12">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="B58" s="10">
         <v>3</v>
       </c>
       <c r="C58" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D58" s="13">
         <v>0</v>
@@ -3682,7 +3699,7 @@
       <c r="E58" s="13">
         <v>0</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="32" t="s">
         <v>63</v>
       </c>
       <c r="G58" s="10">
@@ -3695,13 +3712,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="12">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="B59" s="10">
         <v>3</v>
       </c>
       <c r="C59" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D59" s="13">
         <v>0</v>
@@ -3709,7 +3726,7 @@
       <c r="E59" s="13">
         <v>0</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="32" t="s">
         <v>64</v>
       </c>
       <c r="G59" s="10">
@@ -3722,13 +3739,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="12">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="B60" s="10">
         <v>3</v>
       </c>
       <c r="C60" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60" s="13">
         <v>0</v>
@@ -3736,7 +3753,7 @@
       <c r="E60" s="13">
         <v>0</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="32" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="10">
@@ -3749,13 +3766,13 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="12">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="B61" s="10">
         <v>3</v>
       </c>
       <c r="C61" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D61" s="13">
         <v>0</v>
@@ -3763,7 +3780,7 @@
       <c r="E61" s="13">
         <v>0</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="32" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="10">
@@ -3776,13 +3793,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="B62" s="10">
         <v>3</v>
       </c>
       <c r="C62" s="13">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D62" s="13">
         <v>0</v>
@@ -3790,7 +3807,7 @@
       <c r="E62" s="13">
         <v>0</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="32" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="10">
@@ -3803,13 +3820,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="12">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="B63" s="10">
         <v>3</v>
       </c>
       <c r="C63" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D63" s="13">
         <v>0</v>
@@ -3830,13 +3847,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="12">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="B64" s="10">
         <v>3</v>
       </c>
       <c r="C64" s="13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D64" s="13">
         <v>0</v>
@@ -3857,13 +3874,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="B65" s="10">
         <v>3</v>
       </c>
       <c r="C65" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D65" s="13">
         <v>0</v>
@@ -3884,13 +3901,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="12">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="B66" s="10">
         <v>3</v>
       </c>
       <c r="C66" s="13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D66" s="13">
         <v>0</v>
@@ -3898,7 +3915,7 @@
       <c r="E66" s="13">
         <v>0</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="34" t="s">
         <v>71</v>
       </c>
       <c r="G66" s="10">
@@ -3911,13 +3928,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="12">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="B67" s="10">
         <v>3</v>
       </c>
       <c r="C67" s="13">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D67" s="13">
         <v>0</v>
@@ -3925,7 +3942,7 @@
       <c r="E67" s="13">
         <v>0</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="34" t="s">
         <v>72</v>
       </c>
       <c r="G67" s="10">
@@ -3938,13 +3955,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="12">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="B68" s="10">
         <v>3</v>
       </c>
       <c r="C68" s="13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D68" s="13">
         <v>0</v>
@@ -3952,7 +3969,7 @@
       <c r="E68" s="13">
         <v>0</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="34" t="s">
         <v>73</v>
       </c>
       <c r="G68" s="10">
@@ -3965,13 +3982,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="12">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="B69" s="10">
         <v>3</v>
       </c>
       <c r="C69" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D69" s="13">
         <v>0</v>
@@ -3979,7 +3996,7 @@
       <c r="E69" s="13">
         <v>0</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F69" s="34" t="s">
         <v>74</v>
       </c>
       <c r="G69" s="10">
@@ -3992,13 +4009,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="12">
-        <v>3105</v>
+        <v>3139</v>
       </c>
       <c r="B70" s="10">
         <v>3</v>
       </c>
       <c r="C70" s="13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D70" s="13">
         <v>0</v>
@@ -4019,13 +4036,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="12">
-        <v>3106</v>
+        <v>3140</v>
       </c>
       <c r="B71" s="10">
         <v>3</v>
       </c>
       <c r="C71" s="13">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D71" s="13">
         <v>0</v>
@@ -4046,13 +4063,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="12">
-        <v>3107</v>
+        <v>3141</v>
       </c>
       <c r="B72" s="10">
         <v>3</v>
       </c>
       <c r="C72" s="13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D72" s="13">
         <v>0</v>
@@ -4073,13 +4090,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="12">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="B73" s="10">
         <v>3</v>
       </c>
       <c r="C73" s="13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D73" s="13">
         <v>0</v>
@@ -4087,7 +4104,7 @@
       <c r="E73" s="13">
         <v>0</v>
       </c>
-      <c r="F73" s="34" t="s">
+      <c r="F73" s="35" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="10">
@@ -4100,13 +4117,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="12">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="B74" s="10">
         <v>3</v>
       </c>
       <c r="C74" s="13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D74" s="13">
         <v>0</v>
@@ -4114,7 +4131,7 @@
       <c r="E74" s="13">
         <v>0</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="F74" s="35" t="s">
         <v>79</v>
       </c>
       <c r="G74" s="10">
@@ -4127,13 +4144,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="12">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="B75" s="10">
         <v>3</v>
       </c>
       <c r="C75" s="13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D75" s="13">
         <v>0</v>
@@ -4141,7 +4158,7 @@
       <c r="E75" s="13">
         <v>0</v>
       </c>
-      <c r="F75" s="34" t="s">
+      <c r="F75" s="35" t="s">
         <v>80</v>
       </c>
       <c r="G75" s="10">
@@ -4154,13 +4171,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="12">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="B76" s="10">
         <v>3</v>
       </c>
       <c r="C76" s="13">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D76" s="13">
         <v>0</v>
@@ -4168,7 +4185,7 @@
       <c r="E76" s="13">
         <v>0</v>
       </c>
-      <c r="F76" s="34" t="s">
+      <c r="F76" s="35" t="s">
         <v>81</v>
       </c>
       <c r="G76" s="10">
@@ -4181,13 +4198,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="12">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="B77" s="10">
         <v>3</v>
       </c>
       <c r="C77" s="13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D77" s="13">
         <v>0</v>
@@ -4195,7 +4212,7 @@
       <c r="E77" s="13">
         <v>0</v>
       </c>
-      <c r="F77" s="34" t="s">
+      <c r="F77" s="35" t="s">
         <v>82</v>
       </c>
       <c r="G77" s="10">
@@ -4208,13 +4225,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="12">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="B78" s="10">
         <v>3</v>
       </c>
       <c r="C78" s="13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D78" s="13">
         <v>0</v>
@@ -4222,7 +4239,7 @@
       <c r="E78" s="13">
         <v>0</v>
       </c>
-      <c r="F78" s="34" t="s">
+      <c r="F78" s="35" t="s">
         <v>83</v>
       </c>
       <c r="G78" s="10">
@@ -4230,6 +4247,87 @@
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="12">
+        <v>3111</v>
+      </c>
+      <c r="B79" s="10">
+        <v>3</v>
+      </c>
+      <c r="C79" s="13">
+        <v>35</v>
+      </c>
+      <c r="D79" s="13">
+        <v>0</v>
+      </c>
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="10">
+        <v>1</v>
+      </c>
+      <c r="H79" s="17"/>
+      <c r="I79" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="12">
+        <v>3112</v>
+      </c>
+      <c r="B80" s="10">
+        <v>3</v>
+      </c>
+      <c r="C80" s="13">
+        <v>36</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0</v>
+      </c>
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="10">
+        <v>1</v>
+      </c>
+      <c r="H80" s="17"/>
+      <c r="I80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="12">
+        <v>3113</v>
+      </c>
+      <c r="B81" s="10">
+        <v>3</v>
+      </c>
+      <c r="C81" s="13">
+        <v>37</v>
+      </c>
+      <c r="D81" s="13">
+        <v>0</v>
+      </c>
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="10">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17"/>
+      <c r="I81" s="10">
         <v>2</v>
       </c>
     </row>
